--- a/biology/Histoire de la zoologie et de la botanique/Sauveur_Petit_de_la_Saussaye/Sauveur_Petit_de_la_Saussaye.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sauveur_Petit_de_la_Saussaye/Sauveur_Petit_de_la_Saussaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauveur Abel Aubert Petit de la Saussaye, né en 1792 et mort en 1870, est un zoologiste, malacologiste et biologiste français. Il a été sous commissaire de la Marine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauveur Petit de la Saussaye est le fondateur et l'éditeur du Journal de conchyliologie.
 Il décrit de nombreuses nouvelles espèces de mollusques, et rédigea des rapports sur ses recherches approfondies.
@@ -546,13 +560,15 @@
           <t>Espèces et genres classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acteon senegalensis (Petit de la Saussaye, 1851)
 Rimellopsis powisii (Petit de la Saussaye, 1840)
 Seychellaxis souleyetianus (Petit de la Saussaye, 1841)
 Thais capensis (Petit de la Saussaye, 1852)
-Triton loroisii Petit de la Saussaye, 1852, synonyme de Turritriton labiosus (Wood, 1828)[1]
+Triton loroisii Petit de la Saussaye, 1852, synonyme de Turritriton labiosus (Wood, 1828)
 Recluzia Petit de la Saussaye, 1853
 Zophos baudoni (Petit de la Saussaye, 1853)
 Fusinus couei (Petit de la Saussaye, 1853)
@@ -584,7 +600,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Notice à l’usage des personnes qui s’occupent de la recherche des coquilles
 Petit de la Saussaye S.A. 1851. Catalogue des mollusques marins qui vivent sur les côtes de la France. Journal de Conchyliologie, 2: 274-303.
